--- a/doc/04_DB定義書_F3 .xlsx
+++ b/doc/04_DB定義書_F3 .xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284DE712-87CF-41AB-ABFA-5A3E4B206C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="テーブル一覧" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="dateテーブル" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="userテーブル" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="missionテーブル" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="characterテーブル" sheetId="5" r:id="rId8"/>
+    <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="dateテーブル" sheetId="2" r:id="rId2"/>
+    <sheet name="userテーブル" sheetId="3" r:id="rId3"/>
+    <sheet name="missionテーブル" sheetId="4" r:id="rId4"/>
+    <sheet name="characterテーブル" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhYoHIBFvy/V8V3Uvtgu8qsZuABpA=="/>
     </ext>
@@ -20,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -219,50 +238,72 @@
   <si>
     <t>キャラクターの画像</t>
   </si>
+  <si>
+    <t>sentence</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
-    <numFmt numFmtId="165" formatCode="m/d"/>
-    <numFmt numFmtId="166" formatCode="mm/dd"/>
-    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="mm/dd"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,7 +312,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -287,7 +328,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -301,104 +348,96 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -588,34 +627,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="12.43"/>
-    <col customWidth="1" min="3" max="3" width="28.29"/>
-    <col customWidth="1" min="4" max="4" width="17.86"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="58.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="58.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -629,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -640,10 +682,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>44718.0</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1">
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
@@ -651,16 +693,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1">
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="6">
-        <v>44718.0</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1"/>
-    <row r="7" ht="13.5" customHeight="1">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -677,9 +719,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1">
       <c r="B8" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
@@ -692,9 +734,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1">
       <c r="B9" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -707,9 +749,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1">
       <c r="B10" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>21</v>
@@ -722,9 +764,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1">
       <c r="B11" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>24</v>
@@ -737,259 +779,259 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1">
       <c r="B12" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1">
       <c r="B13" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1">
       <c r="B14" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1">
       <c r="B15" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1">
       <c r="B16" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
+    <row r="17" spans="2:6" ht="13.5" customHeight="1">
       <c r="B17" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
+    <row r="18" spans="2:6" ht="13.5" customHeight="1">
       <c r="B18" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
+    <row r="19" spans="2:6" ht="13.5" customHeight="1">
       <c r="B19" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
+    <row r="20" spans="2:6" ht="13.5" customHeight="1">
       <c r="B20" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
+    <row r="21" spans="2:6" ht="13.5" customHeight="1">
       <c r="B21" s="7">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
+    <row r="22" spans="2:6" ht="13.5" customHeight="1">
       <c r="B22" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
+    <row r="23" spans="2:6" ht="13.5" customHeight="1">
       <c r="B23" s="7">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
+    <row r="24" spans="2:6" ht="13.5" customHeight="1">
       <c r="B24" s="7">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
+    <row r="25" spans="2:6" ht="13.5" customHeight="1">
       <c r="B25" s="7">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" ht="13.5" customHeight="1">
+    <row r="26" spans="2:6" ht="13.5" customHeight="1">
       <c r="B26" s="7">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
+    <row r="27" spans="2:6" ht="13.5" customHeight="1">
       <c r="B27" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
+    <row r="28" spans="2:6" ht="13.5" customHeight="1">
       <c r="B28" s="7">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
+    <row r="29" spans="2:6" ht="13.5" customHeight="1">
       <c r="B29" s="7">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
+    <row r="30" spans="2:6" ht="13.5" customHeight="1">
       <c r="B30" s="7">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" ht="13.5" customHeight="1">
+    <row r="31" spans="2:6" ht="13.5" customHeight="1">
       <c r="B31" s="7">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" ht="13.5" customHeight="1">
+    <row r="32" spans="2:6" ht="13.5" customHeight="1">
       <c r="B32" s="7">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" ht="13.5" customHeight="1">
+    <row r="33" spans="2:6" ht="13.5" customHeight="1">
       <c r="B33" s="7">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
+    <row r="34" spans="2:6" ht="13.5" customHeight="1">
       <c r="B34" s="7">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
+    <row r="35" spans="2:6" ht="13.5" customHeight="1">
       <c r="B35" s="7">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
+    <row r="36" spans="2:6" ht="13.5" customHeight="1">
       <c r="B36" s="7">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
+    <row r="37" spans="2:6" ht="13.5" customHeight="1">
       <c r="B37" s="7">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
+    <row r="38" spans="2:6" ht="13.5" customHeight="1">
       <c r="B38" s="7">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" ht="13.5" customHeight="1"/>
-    <row r="40" ht="13.5" customHeight="1"/>
-    <row r="41" ht="13.5" customHeight="1"/>
-    <row r="42" ht="13.5" customHeight="1"/>
-    <row r="43" ht="13.5" customHeight="1"/>
-    <row r="44" ht="13.5" customHeight="1"/>
-    <row r="45" ht="13.5" customHeight="1"/>
-    <row r="46" ht="13.5" customHeight="1"/>
-    <row r="47" ht="13.5" customHeight="1"/>
-    <row r="48" ht="13.5" customHeight="1"/>
+    <row r="39" spans="2:6" ht="13.5" customHeight="1"/>
+    <row r="40" spans="2:6" ht="13.5" customHeight="1"/>
+    <row r="41" spans="2:6" ht="13.5" customHeight="1"/>
+    <row r="42" spans="2:6" ht="13.5" customHeight="1"/>
+    <row r="43" spans="2:6" ht="13.5" customHeight="1"/>
+    <row r="44" spans="2:6" ht="13.5" customHeight="1"/>
+    <row r="45" spans="2:6" ht="13.5" customHeight="1"/>
+    <row r="46" spans="2:6" ht="13.5" customHeight="1"/>
+    <row r="47" spans="2:6" ht="13.5" customHeight="1"/>
+    <row r="48" spans="2:6" ht="13.5" customHeight="1"/>
     <row r="49" ht="13.5" customHeight="1"/>
     <row r="50" ht="13.5" customHeight="1"/>
     <row r="51" ht="13.5" customHeight="1"/>
@@ -1943,42 +1985,41 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.7480314960629921" footer="0.0" header="0.0" left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921"/>
-  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="16.14"/>
-    <col customWidth="1" min="3" max="3" width="19.43"/>
-    <col customWidth="1" min="4" max="4" width="16.29"/>
-    <col customWidth="1" min="5" max="5" width="16.43"/>
-    <col customWidth="1" min="6" max="6" width="9.71"/>
-    <col customWidth="1" min="7" max="7" width="7.29"/>
-    <col customWidth="1" min="8" max="8" width="9.43"/>
-    <col customWidth="1" min="9" max="9" width="11.29"/>
-    <col customWidth="1" min="10" max="10" width="33.86"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:12" ht="13.5" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1994,7 +2035,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:12" ht="13.5" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2005,12 +2046,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>44718.0</v>
+        <v>44718</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:12" ht="13.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2024,7 +2065,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:12" ht="13.5" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
@@ -2038,10 +2079,10 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1"/>
-    <row r="7" ht="13.5" customHeight="1"/>
-    <row r="8" ht="13.5" customHeight="1"/>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="6" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2077,9 +2118,9 @@
         <v>create table date (</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:12" ht="13.5" customHeight="1">
       <c r="A10" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -2103,13 +2144,13 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="L10" s="11" t="str">
-        <f t="shared" ref="L10:L29" si="1">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>date_id int ,</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:12" ht="13.5" customHeight="1">
       <c r="A11" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>15</v>
@@ -2127,13 +2168,13 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="L11" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>datetime date </v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">datetime date </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" customHeight="1">
       <c r="A12" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2145,13 +2186,13 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="L12" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.5" customHeight="1">
       <c r="A13" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2163,13 +2204,13 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="L13" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.5" customHeight="1">
       <c r="A14" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2181,13 +2222,13 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="L14" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" customHeight="1">
       <c r="A15" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2199,13 +2240,13 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="L15" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.5" customHeight="1">
       <c r="A16" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2217,13 +2258,13 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="L16" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" customHeight="1">
       <c r="A17" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2235,13 +2276,13 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="L17" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.5" customHeight="1">
       <c r="A18" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2253,13 +2294,13 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="L18" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" customHeight="1">
       <c r="A19" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2271,13 +2312,13 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="L19" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" customHeight="1">
       <c r="A20" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2289,13 +2330,13 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="L20" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.5" customHeight="1">
       <c r="A21" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2307,13 +2348,13 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="L21" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1">
       <c r="A22" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2325,13 +2366,13 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="L22" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.5" customHeight="1">
       <c r="A23" s="7">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2343,13 +2384,13 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="L23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.5" customHeight="1">
       <c r="A24" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2361,13 +2402,13 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="L24" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13.5" customHeight="1">
       <c r="A25" s="7">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2379,13 +2420,13 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="L25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" customHeight="1">
       <c r="A26" s="7">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2397,13 +2438,13 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="L26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13.5" customHeight="1">
       <c r="A27" s="7">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2415,13 +2456,13 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="L27" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" customHeight="1">
       <c r="A28" s="7">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2433,13 +2474,13 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="13.5" customHeight="1">
       <c r="A29" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2451,17 +2492,17 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="L29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1"/>
-    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:12" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -3431,42 +3472,41 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="16.14"/>
-    <col customWidth="1" min="3" max="3" width="19.43"/>
-    <col customWidth="1" min="4" max="4" width="16.29"/>
-    <col customWidth="1" min="5" max="5" width="16.43"/>
-    <col customWidth="1" min="6" max="6" width="9.71"/>
-    <col customWidth="1" min="7" max="7" width="7.29"/>
-    <col customWidth="1" min="8" max="8" width="9.43"/>
-    <col customWidth="1" min="9" max="9" width="11.29"/>
-    <col customWidth="1" min="10" max="10" width="46.57"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="46.5703125" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:12" ht="13.5" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3482,7 +3522,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:12" ht="13.5" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3493,12 +3533,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>44718.0</v>
+        <v>44718</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:12" ht="13.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
@@ -3512,7 +3552,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:12" ht="13.5" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
@@ -3523,15 +3563,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="5">
-        <v>44719.0</v>
+        <v>44719</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1"/>
-    <row r="7" ht="13.5" customHeight="1"/>
-    <row r="8" ht="13.5" customHeight="1"/>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="6" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -3567,9 +3607,9 @@
         <v>create table user (</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:12" ht="13.5" customHeight="1">
       <c r="A10" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>45</v>
@@ -3593,13 +3633,13 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="L10" s="11" t="str">
-        <f t="shared" ref="L10:L29" si="1">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>user_id int ,</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:12" ht="13.5" customHeight="1">
       <c r="A11" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>48</v>
@@ -3611,7 +3651,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3621,13 +3661,13 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="L11" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>user_pass varchar (20),</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:12" ht="13.5" customHeight="1">
       <c r="A12" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
@@ -3645,13 +3685,13 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="L12" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>point int ,</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:12" ht="13.5" customHeight="1">
       <c r="A13" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>51</v>
@@ -3671,13 +3711,13 @@
         <v>53</v>
       </c>
       <c r="L13" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>char_id int </v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">char_id int </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.5" customHeight="1">
       <c r="A14" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3689,13 +3729,13 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="L14" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" customHeight="1">
       <c r="A15" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3707,13 +3747,13 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="L15" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.5" customHeight="1">
       <c r="A16" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3725,13 +3765,13 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="L16" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" customHeight="1">
       <c r="A17" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3743,13 +3783,13 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="L17" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.5" customHeight="1">
       <c r="A18" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3761,13 +3801,13 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="L18" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" customHeight="1">
       <c r="A19" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3779,13 +3819,13 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="L19" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" customHeight="1">
       <c r="A20" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3797,13 +3837,13 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="L20" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.5" customHeight="1">
       <c r="A21" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3815,13 +3855,13 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="L21" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1">
       <c r="A22" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3833,13 +3873,13 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="L22" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.5" customHeight="1">
       <c r="A23" s="7">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3851,13 +3891,13 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="L23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.5" customHeight="1">
       <c r="A24" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3869,13 +3909,13 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="L24" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13.5" customHeight="1">
       <c r="A25" s="7">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3887,13 +3927,13 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="L25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" customHeight="1">
       <c r="A26" s="7">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3905,13 +3945,13 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="L26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13.5" customHeight="1">
       <c r="A27" s="7">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3923,13 +3963,13 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="L27" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" customHeight="1">
       <c r="A28" s="7">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3941,13 +3981,13 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="13.5" customHeight="1">
       <c r="A29" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -3959,17 +3999,17 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="L29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1"/>
-    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:12" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -4939,42 +4979,41 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="16.14"/>
-    <col customWidth="1" min="3" max="3" width="19.43"/>
-    <col customWidth="1" min="4" max="4" width="16.29"/>
-    <col customWidth="1" min="5" max="5" width="16.43"/>
-    <col customWidth="1" min="6" max="6" width="9.71"/>
-    <col customWidth="1" min="7" max="7" width="7.29"/>
-    <col customWidth="1" min="8" max="8" width="9.43"/>
-    <col customWidth="1" min="9" max="9" width="11.29"/>
-    <col customWidth="1" min="10" max="10" width="33.86"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:12" ht="13.5" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4990,7 +5029,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:12" ht="13.5" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -5001,12 +5040,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="14">
-        <v>44718.0</v>
+        <v>44718</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:12" ht="13.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
@@ -5020,7 +5059,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:12" ht="13.5" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
@@ -5034,10 +5073,10 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1"/>
-    <row r="7" ht="13.5" customHeight="1"/>
-    <row r="8" ht="13.5" customHeight="1"/>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="6" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -5073,9 +5112,9 @@
         <v>create table mission (</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:12" ht="13.5" customHeight="1">
       <c r="A10" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>56</v>
@@ -5099,25 +5138,25 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="L10" s="13" t="str">
-        <f t="shared" ref="L10:L29" si="1">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>mission_id int ,</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:12" ht="13.5" customHeight="1">
       <c r="A11" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -5125,13 +5164,13 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="L11" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>mission varchar (30)</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>sentence varchar (30)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" customHeight="1">
       <c r="A12" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -5143,13 +5182,13 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="L12" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.5" customHeight="1">
       <c r="A13" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -5161,13 +5200,13 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="L13" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.5" customHeight="1">
       <c r="A14" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -5179,13 +5218,13 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="L14" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" customHeight="1">
       <c r="A15" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5197,13 +5236,13 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="L15" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.5" customHeight="1">
       <c r="A16" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -5215,13 +5254,13 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="L16" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" customHeight="1">
       <c r="A17" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -5233,13 +5272,13 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="L17" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.5" customHeight="1">
       <c r="A18" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -5251,13 +5290,13 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="L18" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" customHeight="1">
       <c r="A19" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -5269,13 +5308,13 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="L19" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" customHeight="1">
       <c r="A20" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -5287,13 +5326,13 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="L20" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.5" customHeight="1">
       <c r="A21" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -5305,13 +5344,13 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="L21" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1">
       <c r="A22" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -5323,13 +5362,13 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="L22" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.5" customHeight="1">
       <c r="A23" s="7">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -5341,13 +5380,13 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="L23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.5" customHeight="1">
       <c r="A24" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -5359,13 +5398,13 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="L24" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13.5" customHeight="1">
       <c r="A25" s="7">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -5377,13 +5416,13 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="L25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" customHeight="1">
       <c r="A26" s="7">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -5395,13 +5434,13 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="L26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13.5" customHeight="1">
       <c r="A27" s="7">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -5413,13 +5452,13 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="L27" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" customHeight="1">
       <c r="A28" s="7">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -5431,13 +5470,13 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="13.5" customHeight="1">
       <c r="A29" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -5449,17 +5488,17 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="L29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1"/>
-    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:12" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -6429,42 +6468,39 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="16.14"/>
-    <col customWidth="1" min="3" max="3" width="19.43"/>
-    <col customWidth="1" min="4" max="4" width="16.29"/>
-    <col customWidth="1" min="5" max="5" width="16.43"/>
-    <col customWidth="1" min="6" max="6" width="9.71"/>
-    <col customWidth="1" min="7" max="7" width="7.29"/>
-    <col customWidth="1" min="8" max="8" width="9.43"/>
-    <col customWidth="1" min="9" max="9" width="11.29"/>
-    <col customWidth="1" min="10" max="10" width="33.86"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:12" ht="13.5" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6480,7 +6516,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:12" ht="13.5" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -6491,12 +6527,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>44718.0</v>
+        <v>44718</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:12" ht="13.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
@@ -6510,7 +6546,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:12" ht="13.5" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
@@ -6521,15 +6557,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="16">
-        <v>44719.0</v>
+        <v>44719</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1"/>
-    <row r="7" ht="13.5" customHeight="1"/>
-    <row r="8" ht="13.5" customHeight="1"/>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="6" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -6565,9 +6601,9 @@
         <v>create table character (</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:12" ht="13.5" customHeight="1">
       <c r="A10" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -6591,13 +6627,13 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="L10" s="11" t="str">
-        <f t="shared" ref="L10:L29" si="1">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>char_id int ,</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:12" ht="13.5" customHeight="1">
       <c r="A11" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>59</v>
@@ -6609,7 +6645,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -6617,13 +6653,13 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="L11" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>name varchar (20),</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:12" ht="13.5" customHeight="1">
       <c r="A12" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>61</v>
@@ -6641,13 +6677,13 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="L12" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Ex_point int ,</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:12" ht="13.5" customHeight="1">
       <c r="A13" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>63</v>
@@ -6659,7 +6695,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -6669,13 +6705,13 @@
         <v>65</v>
       </c>
       <c r="L13" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>file_pass varchar (50)</v>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:12" ht="13.5" customHeight="1">
       <c r="A14" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -6687,13 +6723,13 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="L14" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" customHeight="1">
       <c r="A15" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -6705,13 +6741,13 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="L15" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.5" customHeight="1">
       <c r="A16" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -6723,13 +6759,13 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="L16" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" customHeight="1">
       <c r="A17" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -6741,13 +6777,13 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="L17" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.5" customHeight="1">
       <c r="A18" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -6759,13 +6795,13 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="L18" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" customHeight="1">
       <c r="A19" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -6777,13 +6813,13 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="L19" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" customHeight="1">
       <c r="A20" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -6795,13 +6831,13 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="L20" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.5" customHeight="1">
       <c r="A21" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -6813,13 +6849,13 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="L21" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1">
       <c r="A22" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -6831,13 +6867,13 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="L22" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.5" customHeight="1">
       <c r="A23" s="7">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -6849,13 +6885,13 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="L23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.5" customHeight="1">
       <c r="A24" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -6867,13 +6903,13 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="L24" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13.5" customHeight="1">
       <c r="A25" s="7">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -6885,13 +6921,13 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="L25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" customHeight="1">
       <c r="A26" s="7">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -6903,13 +6939,13 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="L26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13.5" customHeight="1">
       <c r="A27" s="7">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -6921,13 +6957,13 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="L27" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" customHeight="1">
       <c r="A28" s="7">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -6939,13 +6975,13 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="13.5" customHeight="1">
       <c r="A29" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -6957,17 +6993,17 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="L29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1"/>
-    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:12" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -7937,9 +7973,8 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/04_DB定義書_F3 .xlsx
+++ b/doc/04_DB定義書_F3 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284DE712-87CF-41AB-ABFA-5A3E4B206C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C91EDBC-9349-4981-A9D9-D0544BD26062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14820" yWindow="450" windowWidth="10350" windowHeight="7875" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -152,16 +152,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>date_id</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>○</t>
-  </si>
-  <si>
-    <t>datetime</t>
   </si>
   <si>
     <t>)</t>
@@ -179,16 +173,10 @@
     <t>ユーザーID</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>〇</t>
   </si>
   <si>
     <t>パスワード</t>
-  </si>
-  <si>
-    <t>user_pass</t>
   </si>
   <si>
     <t>varchar</t>
@@ -203,16 +191,10 @@
     <t>characterテーブルへの外部キー,現在の選択キャラ</t>
   </si>
   <si>
-    <t>missionテーブル</t>
-  </si>
-  <si>
     <t>古晒悠誠</t>
   </si>
   <si>
     <t>ミッションid</t>
-  </si>
-  <si>
-    <t>mission_id</t>
   </si>
   <si>
     <t>characterテーブル</t>
@@ -221,25 +203,64 @@
     <t>名前</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>経験値</t>
   </si>
   <si>
-    <t>Ex_point</t>
-  </si>
-  <si>
     <t>ファイルパス</t>
-  </si>
-  <si>
-    <t>file_pass</t>
   </si>
   <si>
     <t>キャラクターの画像</t>
   </si>
   <si>
     <t>sentence</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>user_pass</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>date_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>missionテーブル</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>mission_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>char_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Ex_point</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>file_pass</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -297,6 +318,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1995,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2126,20 +2148,20 @@
         <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -2156,10 +2178,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -2498,7 +2520,7 @@
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
@@ -3483,7 +3505,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3503,7 +3525,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1">
@@ -3517,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -3557,7 +3579,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -3612,23 +3634,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -3642,13 +3664,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4">
         <v>20</v>
@@ -3656,7 +3678,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -3673,10 +3695,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="4"/>
@@ -3694,13 +3716,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -3708,7 +3730,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4005,7 +4027,7 @@
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
@@ -4990,7 +5012,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5010,7 +5032,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1">
@@ -5024,7 +5046,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -5117,23 +5139,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -5150,10 +5172,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4">
         <v>30</v>
@@ -5494,7 +5516,7 @@
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
@@ -6478,7 +6500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6497,7 +6521,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1">
@@ -6609,20 +6633,20 @@
         <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -6636,13 +6660,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4">
         <v>20</v>
@@ -6662,13 +6686,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -6686,13 +6710,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13" s="4">
         <v>50</v>
@@ -6702,7 +6726,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="L13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -6999,7 +7023,7 @@
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
@@ -7975,6 +7999,6 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/04_DB定義書_F3 .xlsx
+++ b/doc/04_DB定義書_F3 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C91EDBC-9349-4981-A9D9-D0544BD26062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A20177D-171B-4B15-A44A-2C44DBFBC5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="450" windowWidth="10350" windowHeight="7875" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="76">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -263,6 +263,36 @@
     <t>file_pass</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>保持フラッグ</t>
+    <rPh sb="0" eb="2">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>保持しているか</t>
+    <rPh sb="0" eb="2">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>have_flag</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -273,7 +303,7 @@
     <numFmt numFmtId="177" formatCode="mm/dd"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +357,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -389,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -439,6 +475,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3505,7 +3544,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6501,7 +6540,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6716,7 +6755,7 @@
         <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4">
         <v>50</v>
@@ -6730,25 +6769,35 @@
       </c>
       <c r="L13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>file_pass varchar (50)</v>
+        <v>file_pass varchar (50),</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
       <c r="A14" s="7">
         <v>5</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="L14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">have_flag BOOLEAN </v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">

--- a/doc/04_DB定義書_F3 .xlsx
+++ b/doc/04_DB定義書_F3 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A20177D-171B-4B15-A44A-2C44DBFBC5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D408EE-4491-4A9C-8DBB-CBDED029D3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="1035" windowWidth="11445" windowHeight="7875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
